--- a/data/AddProductData.xlsx
+++ b/data/AddProductData.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1A32C75D-A52B-4807-87B7-CB0F0CBB0E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\autotest\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5B0A7C-30FA-4343-8214-C4A6FC7B13C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +16,6 @@
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -460,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A19" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -774,28 +778,6 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
